--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam-business-plugin\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,6 @@
     <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
     <sheet name="菜单标签数据" sheetId="4" r:id="rId4"/>
     <sheet name="角色" sheetId="5" r:id="rId5"/>
-    <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -25,19 +19,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="233">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -56,7 +49,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -69,7 +61,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -88,7 +79,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -107,7 +97,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -126,7 +115,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -158,7 +146,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -177,7 +164,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -196,7 +182,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -218,7 +203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -239,7 +223,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -260,7 +243,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -281,7 +263,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -302,7 +283,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -314,7 +294,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -333,7 +312,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -345,7 +323,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -364,7 +341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -383,7 +359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -402,7 +377,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -421,7 +395,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -469,7 +442,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -488,7 +460,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -507,7 +478,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -526,7 +496,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -538,7 +507,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -557,7 +525,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -576,7 +543,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -596,7 +562,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -615,7 +580,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -635,7 +599,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -654,7 +617,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -666,7 +628,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -685,7 +646,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -704,7 +664,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -728,7 +687,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -747,7 +705,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -766,7 +723,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -785,7 +741,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -804,7 +759,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -816,7 +770,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -835,7 +788,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -846,7 +798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -867,7 +818,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -878,7 +828,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -897,7 +846,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -916,7 +864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -940,7 +887,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -959,7 +905,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -979,7 +924,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -999,7 +943,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1019,7 +962,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1040,7 +982,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1060,7 +1001,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1095,7 +1035,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1116,7 +1055,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1128,7 +1066,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1147,7 +1084,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1168,7 +1104,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1187,7 +1122,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1200,7 +1134,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1219,7 +1152,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1238,7 +1170,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1257,7 +1188,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1272,7 +1202,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1291,7 +1220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1310,7 +1238,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1329,7 +1256,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1348,7 +1274,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1364,7 +1289,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1374,7 +1298,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1393,7 +1316,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1409,7 +1331,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1419,7 +1340,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1438,7 +1358,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1453,7 +1372,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1472,7 +1390,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1491,7 +1408,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1511,7 +1427,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1535,7 +1450,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1554,7 +1468,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1573,7 +1486,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1593,7 +1505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1614,7 +1525,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1625,7 +1535,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1635,7 +1544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1647,7 +1555,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1666,7 +1573,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1685,7 +1591,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1704,7 +1609,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1724,7 +1628,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1743,7 +1646,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1762,7 +1664,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1782,7 +1683,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1801,7 +1701,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1820,7 +1719,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1839,7 +1737,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1859,7 +1756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1871,7 +1767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1882,7 +1777,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1892,7 +1786,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1904,7 +1797,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1923,7 +1815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1935,7 +1826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1954,7 +1844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1974,7 +1863,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2101,171 +1989,6 @@
     <t>api</t>
   </si>
   <si>
-    <t>iam_menu-162</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>ZZGL</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>manage_organization</t>
-  </si>
-  <si>
-    <t>/iam/organization</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization</t>
-  </si>
-  <si>
-    <t>iam_menu-167</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization.ps.create</t>
-  </si>
-  <si>
-    <t>创建组织</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization|choerodon.code.site.manager.organization.ps.create</t>
-  </si>
-  <si>
-    <t>iam_menu-168</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization.ps.default</t>
-  </si>
-  <si>
-    <t>默认权限集</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization|choerodon.code.site.manager.organization.ps.default</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>iam_menu-169</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization.ps.detail</t>
-  </si>
-  <si>
-    <t>查看组织详情</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization|choerodon.code.site.manager.organization.ps.detail</t>
-  </si>
-  <si>
-    <t>iam_menu-170</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization.ps.disable</t>
-  </si>
-  <si>
-    <t>停用组织</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization|choerodon.code.site.manager.organization.ps.disable</t>
-  </si>
-  <si>
-    <t>iam_menu-171</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization.ps.enable</t>
-  </si>
-  <si>
-    <t>启用组织</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization|choerodon.code.site.manager.organization.ps.enable</t>
-  </si>
-  <si>
-    <t>iam_menu-172</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization.ps.list</t>
-  </si>
-  <si>
-    <t>组织清单</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization|choerodon.code.site.manager.organization.ps.list</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>iam_menu-174</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization.ps.update</t>
-  </si>
-  <si>
-    <t>修改组织</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization|choerodon.code.site.manager.organization.ps.update</t>
-  </si>
-  <si>
-    <t>iam_menu-175</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization.ps.delay</t>
-  </si>
-  <si>
-    <t>注册组织延期</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization|choerodon.code.site.manager.organization.ps.delay</t>
-  </si>
-  <si>
-    <t>iam_menu-176</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.organization.ps.upgrade</t>
-  </si>
-  <si>
-    <t>注册组织升级</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager|choerodon.code.site.manager.organization|choerodon.code.site.manager.organization.ps.upgrade</t>
-  </si>
-  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2278,33 +2001,6 @@
     <t>#permission_code</t>
   </si>
   <si>
-    <t>iam_menu_permission-59</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-255</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-256</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-257</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-258</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-259</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-260</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-261</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-262</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2530,15 +2226,6 @@
     <t>assign_type</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2747,122 +2434,19 @@
   </si>
   <si>
     <t>h_inherit_flag</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE_TPL</t>
-  </si>
-  <si>
-    <t>标识内置模板角色</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE</t>
-  </si>
-  <si>
-    <t>标识租户层角色</t>
-  </si>
-  <si>
-    <t>Tenant Role</t>
-  </si>
-  <si>
-    <t>TENANT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识租户管理员角色</t>
-  </si>
-  <si>
-    <t>PROJECT_ROLE</t>
-  </si>
-  <si>
-    <t>标识项目层角色</t>
-  </si>
-  <si>
-    <t>Project Role</t>
-  </si>
-  <si>
-    <t>PROJECT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识项目管理员角色</t>
-  </si>
-  <si>
-    <t>TENANT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识租户成员角色</t>
-  </si>
-  <si>
-    <t>Tenant Member</t>
-  </si>
-  <si>
-    <t>PROJECT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识项目成员角色</t>
-  </si>
-  <si>
-    <t>Project Member</t>
-  </si>
-  <si>
-    <t>TENANT_TPL</t>
-  </si>
-  <si>
-    <t>租户管理员模板标签</t>
-  </si>
-  <si>
-    <t>Tenant Template Label</t>
-  </si>
-  <si>
-    <t>GITLAB_OWNER</t>
-  </si>
-  <si>
-    <t>标识gitlab_owner</t>
-  </si>
-  <si>
-    <t>GITLAB_DEVELOPER</t>
-  </si>
-  <si>
-    <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>choerodon-iam.choerodon-tenant.pagingQuery</t>
-  </si>
-  <si>
-    <t>choerodon-iam.choerodon-organization-pro.create</t>
-  </si>
-  <si>
-    <t>choerodon-iam.choerodon-tenant.check</t>
-  </si>
-  <si>
-    <t>choerodon-iam.choerodon-tenant.update</t>
-  </si>
-  <si>
-    <t>choerodon-iam.choerodon-tenant.disableOrganization</t>
-  </si>
-  <si>
-    <t>choerodon-iam.choerodon-tenant.query</t>
-  </si>
-  <si>
-    <t>choerodon-iam.choerodon-tenant.enableOrganization</t>
-  </si>
-  <si>
-    <t>choerodon-iam.organization-pro-hand.tenantDelay</t>
-  </si>
-  <si>
-    <t>choerodon-iam.organization-pro-hand.convertTenant</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2873,30 +2457,24 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2937,9 +2515,172 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2959,7 +2700,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2973,21 +2713,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2996,28 +2733,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3048,8 +2765,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3150,53 +3053,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3206,35 +3362,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3307,9 +3497,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3567,267 +3754,270 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="C1" s="35" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="34" t="s">
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="16" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="25" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="19" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="27" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="30" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="30" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="30" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="30" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="31" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="20" t="s">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="32" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E9" sqref="E9:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7"/>
   <cols>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="21.7481481481481" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="11" max="11" width="15.9140625" customWidth="1"/>
+    <col min="11" max="11" width="15.9111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3841,7 +4031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3929,7 +4119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="6" customFormat="1">
+    <row r="8" s="6" customFormat="1" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -3983,543 +4173,28 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="6" customFormat="1">
-      <c r="E9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="6" t="str">
-        <f>E8</f>
-        <v>iam_menu-151</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="6" customFormat="1">
-      <c r="E10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="6" t="str">
-        <f>E9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="6" customFormat="1">
-      <c r="E11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="6" t="str">
-        <f>E9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="6" customFormat="1">
-      <c r="E12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="6" t="str">
-        <f>E9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="6" customFormat="1">
-      <c r="E13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="6" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="6" customFormat="1">
-      <c r="E14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="6" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="6" customFormat="1">
-      <c r="E15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="6" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="6" customFormat="1">
-      <c r="E16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="6" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="T16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="5:24" s="6" customFormat="1">
-      <c r="E17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="6" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="6">
-        <v>90</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="5:24" s="6" customFormat="1">
-      <c r="E18" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="6" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="6">
-        <v>100</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4533,7 +4208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4552,149 +4227,42 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="E8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-172</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="E9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-167</v>
-      </c>
-      <c r="G9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-167</v>
-      </c>
-      <c r="G10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-174</v>
-      </c>
-      <c r="G11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-170</v>
-      </c>
-      <c r="G12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="E13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-169</v>
-      </c>
-      <c r="G13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-171</v>
-      </c>
-      <c r="G14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-175</v>
-      </c>
-      <c r="G15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-176</v>
-      </c>
-      <c r="G16" t="s">
-        <v>334</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="14.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4708,7 +4276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4727,601 +4295,601 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15">
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15">
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15">
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15">
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15">
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15">
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15">
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15">
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15">
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15">
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15">
+      <c r="E26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" t="s">
         <v>155</v>
       </c>
-      <c r="H7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="E8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="E9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>174</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>167</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" t="s">
-        <v>185</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" t="s">
-        <v>188</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="E16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" t="s">
-        <v>191</v>
-      </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="E17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" t="s">
-        <v>193</v>
-      </c>
-      <c r="G17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" t="s">
-        <v>194</v>
-      </c>
-      <c r="K17" t="s">
-        <v>194</v>
-      </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="E18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" t="s">
-        <v>197</v>
-      </c>
-      <c r="K18" t="s">
-        <v>197</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="E19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J19" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" t="s">
-        <v>199</v>
-      </c>
-      <c r="M19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="E20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" t="s">
-        <v>166</v>
-      </c>
-      <c r="H20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" t="s">
-        <v>174</v>
-      </c>
-      <c r="M20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="E21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s">
-        <v>174</v>
-      </c>
-      <c r="J21" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" t="s">
-        <v>205</v>
-      </c>
-      <c r="M21" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" t="s">
-        <v>80</v>
-      </c>
-      <c r="O21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="E22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s">
-        <v>174</v>
-      </c>
-      <c r="J22" t="s">
-        <v>208</v>
-      </c>
-      <c r="K22" t="s">
-        <v>208</v>
-      </c>
-      <c r="M22" t="s">
-        <v>80</v>
-      </c>
-      <c r="N22" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="E23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" t="s">
-        <v>210</v>
-      </c>
-      <c r="G23" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" t="s">
-        <v>211</v>
-      </c>
-      <c r="M23" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="E24" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s">
-        <v>174</v>
-      </c>
-      <c r="M24" t="s">
-        <v>80</v>
-      </c>
-      <c r="N24" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="E25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F25" t="s">
-        <v>215</v>
-      </c>
-      <c r="G25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" t="s">
-        <v>216</v>
-      </c>
-      <c r="M25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N25" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="E26" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s">
-        <v>174</v>
-      </c>
-      <c r="J26" t="s">
-        <v>219</v>
-      </c>
       <c r="M26" t="s">
         <v>80</v>
       </c>
@@ -5332,7 +4900,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -5340,258 +4908,50 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="E29" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="H29" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="E30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-162</v>
-      </c>
-      <c r="H30" t="str">
-        <f>菜单标签数据!$E$24</f>
-        <v>iam_label-24</v>
-      </c>
-      <c r="I30" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="E31" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-168</v>
-      </c>
-      <c r="H31" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="E32" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-172</v>
-      </c>
-      <c r="H32" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-167</v>
-      </c>
-      <c r="H33" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-174</v>
-      </c>
-      <c r="H34" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>227</v>
-      </c>
-      <c r="F35" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-170</v>
-      </c>
-      <c r="H35" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" t="s">
-        <v>227</v>
-      </c>
-      <c r="F36" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-169</v>
-      </c>
-      <c r="H36" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G37" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-171</v>
-      </c>
-      <c r="H37" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" t="s">
-        <v>227</v>
-      </c>
-      <c r="F38" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-175</v>
-      </c>
-      <c r="H38" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I38" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
-        <v>227</v>
-      </c>
-      <c r="F39" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-176</v>
-      </c>
-      <c r="H39" t="str">
-        <f>菜单标签数据!$E$12</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I39" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17:J227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5605,7 +4965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5624,10 +4984,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -5642,72 +5002,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="O7" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="Q7" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="S7" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="T7" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="X7" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="Y7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="I8" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -5722,7 +5082,7 @@
         <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="O8" t="s">
         <v>80</v>
@@ -5743,33 +5103,33 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="V8" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="H9" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="J9" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
         <v>80</v>
@@ -5781,7 +5141,7 @@
         <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="O9" t="s">
         <v>80</v>
@@ -5802,30 +5162,30 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="H10" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="J10" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
         <v>80</v>
@@ -5838,7 +5198,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="O10" t="s">
         <v>80</v>
@@ -5859,36 +5219,36 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="V10" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="Y10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="H11" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="J11" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
         <v>80</v>
@@ -5901,7 +5261,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="O11" t="s">
         <v>80</v>
@@ -5922,36 +5282,36 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="V11" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="Y11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="G12" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="H12" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="J12" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
         <v>80</v>
@@ -5964,7 +5324,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="O12" t="s">
         <v>80</v>
@@ -5985,36 +5345,36 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="V12" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="Y12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H13" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="J13" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
@@ -6027,7 +5387,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="O13" t="s">
         <v>80</v>
@@ -6048,33 +5408,33 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="V13" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="Y13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="G14" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -6090,7 +5450,7 @@
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6111,16 +5471,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="V14" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -6128,741 +5488,32 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="H16" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="E8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J8" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" t="s">
-        <v>302</v>
-      </c>
-      <c r="M8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="E9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G9" t="s">
-        <v>300</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J9" t="s">
-        <v>304</v>
-      </c>
-      <c r="K9" t="s">
-        <v>305</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="E10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>167</v>
-      </c>
-      <c r="J10" t="s">
-        <v>307</v>
-      </c>
-      <c r="K10" t="s">
-        <v>307</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" t="s">
-        <v>308</v>
-      </c>
-      <c r="G11" t="s">
-        <v>300</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" t="s">
-        <v>309</v>
-      </c>
-      <c r="K11" t="s">
-        <v>310</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" t="s">
-        <v>311</v>
-      </c>
-      <c r="G12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K12" t="s">
-        <v>280</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" t="s">
-        <v>300</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13" t="s">
-        <v>315</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" t="s">
-        <v>316</v>
-      </c>
-      <c r="G14" t="s">
-        <v>300</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" t="s">
-        <v>317</v>
-      </c>
-      <c r="K14" t="s">
-        <v>318</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G15" t="s">
-        <v>300</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K15" t="s">
-        <v>321</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="E16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" t="s">
-        <v>322</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" t="s">
-        <v>323</v>
-      </c>
-      <c r="K16" t="s">
-        <v>322</v>
-      </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="E17" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" t="s">
-        <v>324</v>
-      </c>
-      <c r="G17" t="s">
-        <v>300</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K17" t="s">
-        <v>324</v>
-      </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="E20" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="H20" t="str">
-        <f>角色标签数据!$E$8</f>
-        <v>iam_label-10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="E21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" t="s">
-        <v>300</v>
-      </c>
-      <c r="G21" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="H21" t="str">
-        <f>角色标签数据!$E$9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="E22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="H22" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-12</v>
-      </c>
-      <c r="I22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="E23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G23" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
-      </c>
-      <c r="H23" t="str">
-        <f>角色标签数据!$E$8</f>
-        <v>iam_label-10</v>
-      </c>
-      <c r="I23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="E24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" t="s">
-        <v>300</v>
-      </c>
-      <c r="G24" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
-      </c>
-      <c r="H24" t="str">
-        <f>角色标签数据!$E$9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="E25" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" t="s">
-        <v>300</v>
-      </c>
-      <c r="G25" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
-      </c>
-      <c r="H25" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="E26" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" t="s">
-        <v>300</v>
-      </c>
-      <c r="G26" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="H26" t="str">
-        <f>角色标签数据!$E$8</f>
-        <v>iam_label-10</v>
-      </c>
-      <c r="I26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="E27" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" t="s">
-        <v>300</v>
-      </c>
-      <c r="G27" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="H27" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="E28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" t="s">
-        <v>300</v>
-      </c>
-      <c r="G28" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="H28" t="str">
-        <f>角色标签数据!$E$12</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="E29" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" t="s">
-        <v>300</v>
-      </c>
-      <c r="G29" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="H29" t="str">
-        <f>角色标签数据!$E$16</f>
-        <v>iam_label-18</v>
-      </c>
-      <c r="I29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="E30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" t="s">
-        <v>300</v>
-      </c>
-      <c r="G30" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H30" t="str">
-        <f>角色标签数据!$E$8</f>
-        <v>iam_label-10</v>
-      </c>
-      <c r="I30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="E31" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" t="s">
-        <v>300</v>
-      </c>
-      <c r="G31" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H31" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="E32" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" t="s">
-        <v>300</v>
-      </c>
-      <c r="G32" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H32" t="str">
-        <f>角色标签数据!$E$14</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F33" t="s">
-        <v>300</v>
-      </c>
-      <c r="G33" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H33" t="str">
-        <f>角色标签数据!$E$17</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="250">
   <si>
     <r>
       <rPr>
@@ -1977,18 +1977,51 @@
     <t>site</t>
   </si>
   <si>
+    <t>root</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>api</t>
   </si>
   <si>
+    <t>iam_menu-152</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.pipeline.template</t>
+  </si>
+  <si>
+    <t>应用模板</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>/iam/pipeline-template</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager|choerodon.code.site.manager.pipeline.template</t>
+  </si>
+  <si>
+    <t>iam_menu-153</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.pipeline.template.ps.default</t>
+  </si>
+  <si>
+    <t>默认权限集</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager|choerodon.code.site.manager.pipeline.template|choerodon.code.site.manager.pipeline.template.ps.default</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2226,6 +2259,12 @@
     <t>assign_type</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2434,6 +2473,18 @@
   </si>
   <si>
     <t>h_inherit_flag</t>
+  </si>
+  <si>
+    <t>iam_role_permission-17</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
   </si>
 </sst>
 </file>
@@ -2441,12 +2492,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2523,6 +2574,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2530,14 +2603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2551,10 +2617,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2573,6 +2639,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2586,21 +2660,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2636,31 +2695,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2668,19 +2719,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2699,13 +2738,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2718,12 +2750,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2767,13 +2793,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2785,61 +2853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2863,13 +2883,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2887,61 +2961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3056,9 +3082,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3074,39 +3102,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3141,64 +3136,92 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3208,94 +3231,97 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4004,13 +4030,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="5" max="5" width="21.7481481481481" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
@@ -4138,14 +4164,14 @@
       <c r="J8" t="s">
         <v>79</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>80</v>
       </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
         <v>82</v>
@@ -4153,16 +4179,16 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
         <v>76</v>
       </c>
-      <c r="T8" t="s">
-        <v>80</v>
+      <c r="T8">
+        <v>0</v>
       </c>
       <c r="U8"/>
       <c r="V8" t="s">
@@ -4171,6 +4197,102 @@
       <c r="W8"/>
       <c r="X8" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="str">
+        <f>E8</f>
+        <v>iam_menu-151</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>130</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:24">
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="str">
+        <f>E9</f>
+        <v>iam_menu-152</v>
+      </c>
+      <c r="L10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4307,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:I16"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -4227,19 +4349,19 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4251,10 +4373,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:I39"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4295,66 +4417,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -4368,25 +4490,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -4400,19 +4522,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -4426,25 +4548,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
         <v>82</v>
@@ -4452,25 +4574,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
         <v>113</v>
       </c>
-      <c r="F12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" t="s">
-        <v>102</v>
-      </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -4484,28 +4606,28 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O13" t="s">
         <v>82</v>
@@ -4513,28 +4635,28 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O14" t="s">
         <v>82</v>
@@ -4542,28 +4664,28 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
         <v>82</v>
@@ -4571,28 +4693,28 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
         <v>82</v>
@@ -4600,31 +4722,31 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O17" t="s">
         <v>82</v>
@@ -4632,31 +4754,31 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O18" t="s">
         <v>82</v>
@@ -4664,25 +4786,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -4696,25 +4818,25 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s">
         <v>82</v>
@@ -4722,31 +4844,31 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K21" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O21" t="s">
         <v>82</v>
@@ -4754,31 +4876,31 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O22" t="s">
         <v>82</v>
@@ -4786,31 +4908,31 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J23" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O23" t="s">
         <v>82</v>
@@ -4818,25 +4940,25 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" t="s">
         <v>82</v>
@@ -4844,28 +4966,28 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" t="s">
         <v>82</v>
@@ -4873,28 +4995,28 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J26" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" t="s">
         <v>82</v>
@@ -4908,25 +5030,44 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" t="str">
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-152</v>
+      </c>
+      <c r="H29" t="str">
+        <f>菜单标签数据!$E$12</f>
+        <v>iam_label-12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4938,10 +5079,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:J227"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4984,10 +5125,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -5002,96 +5143,96 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Q7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="R7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="S7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="T7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="X7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="Y7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
         <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
         <v>82</v>
@@ -5100,57 +5241,57 @@
         <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="V8" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="W8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="I9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
         <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
         <v>82</v>
@@ -5159,55 +5300,55 @@
         <v>82</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="V9" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="W9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M10" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
         <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
         <v>82</v>
@@ -5216,61 +5357,61 @@
         <v>82</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="V10" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="W10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="Y10" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H11" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
         <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
         <v>82</v>
@@ -5279,61 +5420,61 @@
         <v>82</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="V11" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="W11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="Y11" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H12" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
         <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
         <v>82</v>
@@ -5342,61 +5483,61 @@
         <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="V12" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="Y12" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H13" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s">
         <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
         <v>82</v>
@@ -5405,36 +5546,36 @@
         <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="V13" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="W13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="Y13" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G14" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -5450,7 +5591,7 @@
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -5471,10 +5612,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="V14" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -5488,28 +5629,50 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H16" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="I16" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="str">
+        <f>角色!$E$8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G17" t="str">
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-152</v>
+      </c>
+      <c r="H17" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="251">
   <si>
     <r>
       <rPr>
@@ -1999,6 +1999,9 @@
   </si>
   <si>
     <t>menu</t>
+  </si>
+  <si>
+    <t>view_compact-o</t>
   </si>
   <si>
     <t>/iam/pipeline-template</t>
@@ -2493,9 +2496,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2569,7 +2572,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2581,7 +2584,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2596,29 +2606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2639,9 +2627,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2663,26 +2651,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2704,6 +2677,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2711,7 +2714,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2793,13 +2796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2817,7 +2820,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2829,73 +2940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2913,67 +2964,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3106,36 +3109,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3169,6 +3142,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3180,148 +3183,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4032,8 +4035,8 @@
   <sheetPr/>
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4228,8 +4231,11 @@
       <c r="N9">
         <v>1</v>
       </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4238,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -4252,16 +4258,16 @@
     </row>
     <row r="10" spans="5:24">
       <c r="E10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -4271,7 +4277,7 @@
         <v>iam_menu-152</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -4283,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -4349,19 +4355,19 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4417,66 +4423,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" t="s">
         <v>113</v>
-      </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" t="s">
-        <v>112</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -4490,25 +4496,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s">
         <v>118</v>
-      </c>
-      <c r="K9" t="s">
-        <v>117</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -4522,19 +4528,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -4548,19 +4554,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -4574,25 +4580,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -4606,22 +4612,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -4635,22 +4641,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -4664,22 +4670,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -4693,22 +4699,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -4722,25 +4728,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -4754,25 +4760,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -4786,25 +4792,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s">
         <v>147</v>
-      </c>
-      <c r="K19" t="s">
-        <v>146</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -4818,19 +4824,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -4844,25 +4850,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -4876,25 +4882,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -4908,25 +4914,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -4940,19 +4946,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -4966,22 +4972,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -4995,22 +5001,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -5030,33 +5036,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -5067,7 +5073,7 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5081,7 +5087,7 @@
   <sheetPr/>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5125,10 +5131,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -5143,72 +5149,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -5223,7 +5229,7 @@
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O8" t="s">
         <v>81</v>
@@ -5244,10 +5250,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -5255,58 +5261,58 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" t="s">
         <v>198</v>
       </c>
-      <c r="F9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" t="s">
-        <v>201</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>198</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
         <v>202</v>
       </c>
-      <c r="J9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" t="s">
-        <v>197</v>
-      </c>
-      <c r="O9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" t="s">
-        <v>82</v>
-      </c>
-      <c r="S9" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" t="s">
-        <v>201</v>
-      </c>
       <c r="V9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -5314,19 +5320,19 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" t="s">
         <v>81</v>
@@ -5339,7 +5345,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O10" t="s">
         <v>81</v>
@@ -5360,36 +5366,36 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="V10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K11" t="s">
         <v>81</v>
@@ -5402,7 +5408,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O11" t="s">
         <v>81</v>
@@ -5423,36 +5429,36 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K12" t="s">
         <v>81</v>
@@ -5465,7 +5471,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O12" t="s">
         <v>81</v>
@@ -5486,36 +5492,36 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K13" t="s">
         <v>81</v>
@@ -5528,7 +5534,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O13" t="s">
         <v>81</v>
@@ -5549,33 +5555,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -5591,7 +5597,7 @@
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -5612,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="V14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -5629,33 +5635,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -5666,13 +5672,13 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
